--- a/trunk/statistics.xlsx
+++ b/trunk/statistics.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
     <t>References</t>
   </si>
@@ -44,6 +44,24 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>1 to 8</t>
+  </si>
+  <si>
+    <t>ParaCite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No of References </t>
+  </si>
+  <si>
+    <t>No of False References</t>
+  </si>
+  <si>
+    <t>% of false references</t>
+  </si>
+  <si>
+    <t>No of false references in ParaCite</t>
   </si>
 </sst>
 </file>
@@ -79,8 +97,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -375,15 +394,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -402,8 +421,11 @@
       <c r="F1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2">
         <v>9</v>
       </c>
@@ -414,7 +436,7 @@
         <v>33</v>
       </c>
       <c r="D2">
-        <f>C2/B2 * 100</f>
+        <f t="shared" ref="D2:D17" si="0">C2/B2 * 100</f>
         <v>76.744186046511629</v>
       </c>
       <c r="E2">
@@ -424,8 +446,11 @@
         <f>Publication/Reference * 100</f>
         <v>74.418604651162795</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3">
         <v>10</v>
       </c>
@@ -436,18 +461,21 @@
         <v>11</v>
       </c>
       <c r="D3">
-        <f>C3/B3 * 100</f>
+        <f t="shared" si="0"/>
         <v>73.333333333333329</v>
       </c>
       <c r="E3">
         <v>11</v>
       </c>
       <c r="F3">
-        <f>E3/B3*100</f>
+        <f t="shared" ref="F3:F25" si="1">E3/B3*100</f>
         <v>73.333333333333329</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4">
         <v>11</v>
       </c>
@@ -458,18 +486,21 @@
         <v>49</v>
       </c>
       <c r="D4">
-        <f>C4/B4 * 100</f>
+        <f t="shared" si="0"/>
         <v>75.384615384615387</v>
       </c>
       <c r="E4">
         <v>45</v>
       </c>
       <c r="F4">
-        <f>E4/B4*100</f>
+        <f t="shared" si="1"/>
         <v>69.230769230769226</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5">
         <v>12</v>
       </c>
@@ -480,18 +511,21 @@
         <v>49</v>
       </c>
       <c r="D5">
-        <f>C5/B5 * 100</f>
+        <f t="shared" si="0"/>
         <v>79.032258064516128</v>
       </c>
       <c r="E5">
         <v>47</v>
       </c>
       <c r="F5">
-        <f>E5/B5*100</f>
+        <f t="shared" si="1"/>
         <v>75.806451612903231</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6">
         <v>15</v>
       </c>
@@ -502,18 +536,21 @@
         <v>9</v>
       </c>
       <c r="D6">
-        <f>C6/B6 * 100</f>
+        <f t="shared" si="0"/>
         <v>81.818181818181827</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6">
-        <f>E6/B6*100</f>
+        <f t="shared" si="1"/>
         <v>81.818181818181827</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7">
         <v>16</v>
       </c>
@@ -524,21 +561,24 @@
         <v>10</v>
       </c>
       <c r="D7">
-        <f>C7/B7 * 100</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
       <c r="E7">
         <v>8</v>
       </c>
       <c r="F7">
-        <f>E7/B7*100</f>
+        <f t="shared" si="1"/>
         <v>53.333333333333336</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8">
         <v>17</v>
       </c>
@@ -549,21 +589,24 @@
         <v>29</v>
       </c>
       <c r="D8">
-        <f>C8/B8 * 100</f>
+        <f t="shared" si="0"/>
         <v>74.358974358974365</v>
       </c>
       <c r="E8">
         <v>29</v>
       </c>
       <c r="F8">
-        <f>E8/B8*100</f>
+        <f t="shared" si="1"/>
         <v>74.358974358974365</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9">
         <v>18</v>
       </c>
@@ -574,18 +617,21 @@
         <v>13</v>
       </c>
       <c r="D9">
-        <f>C9/B9 * 100</f>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="E9">
         <v>13</v>
       </c>
       <c r="F9">
-        <f>E9/B9*100</f>
+        <f t="shared" si="1"/>
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10">
         <v>19</v>
       </c>
@@ -596,18 +642,21 @@
         <v>2</v>
       </c>
       <c r="D10">
-        <f>C10/B10 * 100</f>
+        <f t="shared" si="0"/>
         <v>66.666666666666657</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10">
-        <f>E10/B10*100</f>
+        <f t="shared" si="1"/>
         <v>66.666666666666657</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11">
         <v>20</v>
       </c>
@@ -618,18 +667,21 @@
         <v>15</v>
       </c>
       <c r="D11">
-        <f>C11/B11 * 100</f>
+        <f t="shared" si="0"/>
         <v>83.333333333333343</v>
       </c>
       <c r="E11">
         <v>15</v>
       </c>
       <c r="F11">
-        <f>E11/B11*100</f>
+        <f t="shared" si="1"/>
         <v>83.333333333333343</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12">
         <v>21</v>
       </c>
@@ -640,18 +692,21 @@
         <v>20</v>
       </c>
       <c r="D12">
-        <f>C12/B12 * 100</f>
+        <f t="shared" si="0"/>
         <v>71.428571428571431</v>
       </c>
       <c r="E12">
         <v>20</v>
       </c>
       <c r="F12">
-        <f>E12/B12*100</f>
+        <f t="shared" si="1"/>
         <v>71.428571428571431</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13">
         <v>22</v>
       </c>
@@ -662,18 +717,21 @@
         <v>19</v>
       </c>
       <c r="D13">
-        <f>C13/B13 * 100</f>
+        <f t="shared" si="0"/>
         <v>79.166666666666657</v>
       </c>
       <c r="E13">
         <v>19</v>
       </c>
       <c r="F13">
-        <f>E13/B13*100</f>
+        <f t="shared" si="1"/>
         <v>79.166666666666657</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14">
         <v>23</v>
       </c>
@@ -684,18 +742,21 @@
         <v>30</v>
       </c>
       <c r="D14">
-        <f>C14/B14 * 100</f>
+        <f t="shared" si="0"/>
         <v>78.94736842105263</v>
       </c>
       <c r="E14">
         <v>32</v>
       </c>
       <c r="F14">
-        <f>E14/B14*100</f>
+        <f t="shared" si="1"/>
         <v>84.210526315789465</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15">
         <v>24</v>
       </c>
@@ -706,18 +767,21 @@
         <v>14</v>
       </c>
       <c r="D15">
-        <f>C15/B15 * 100</f>
+        <f t="shared" si="0"/>
         <v>77.777777777777786</v>
       </c>
       <c r="E15">
         <v>14</v>
       </c>
       <c r="F15">
-        <f>E15/B15*100</f>
+        <f t="shared" si="1"/>
         <v>77.777777777777786</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16">
         <v>25</v>
       </c>
@@ -728,18 +792,21 @@
         <v>8</v>
       </c>
       <c r="D16">
-        <f>C16/B16 * 100</f>
+        <f t="shared" si="0"/>
         <v>88.888888888888886</v>
       </c>
       <c r="E16">
         <v>8</v>
       </c>
       <c r="F16">
-        <f>E16/B16*100</f>
+        <f t="shared" si="1"/>
         <v>88.888888888888886</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17">
         <v>26</v>
       </c>
@@ -750,18 +817,21 @@
         <v>28</v>
       </c>
       <c r="D17">
-        <f>C17/B17 * 100</f>
+        <f t="shared" si="0"/>
         <v>65.116279069767444</v>
       </c>
       <c r="E17">
         <v>28</v>
       </c>
       <c r="F17">
-        <f>E17/B17*100</f>
+        <f t="shared" si="1"/>
         <v>65.116279069767444</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>27</v>
       </c>
@@ -779,11 +849,14 @@
         <v>18</v>
       </c>
       <c r="F18">
-        <f>E18/B18*100</f>
+        <f t="shared" si="1"/>
         <v>72</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19">
         <v>28</v>
       </c>
@@ -801,11 +874,14 @@
         <v>8</v>
       </c>
       <c r="F19">
-        <f>E19/B19*100</f>
+        <f t="shared" si="1"/>
         <v>72.727272727272734</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>29</v>
       </c>
@@ -823,11 +899,14 @@
         <v>22</v>
       </c>
       <c r="F20">
-        <f>E20/B20*100</f>
+        <f t="shared" si="1"/>
         <v>81.481481481481481</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>30</v>
       </c>
@@ -845,11 +924,14 @@
         <v>5</v>
       </c>
       <c r="F21">
-        <f>E21/B21*100</f>
+        <f t="shared" si="1"/>
         <v>45.454545454545453</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22">
         <v>31</v>
       </c>
@@ -867,11 +949,14 @@
         <v>15</v>
       </c>
       <c r="F22">
-        <f>E22/B22*100</f>
+        <f t="shared" si="1"/>
         <v>75</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23">
         <v>32</v>
       </c>
@@ -889,58 +974,113 @@
         <v>3</v>
       </c>
       <c r="F23">
-        <f>E23/B23*100</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24">
+      <c r="H23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <f>C24/B24 * 100</f>
+        <v>78.151260504201687</v>
+      </c>
+      <c r="E24">
+        <v>87</v>
+      </c>
+      <c r="F24">
+        <f>E24/B24*100</f>
+        <v>73.109243697478988</v>
+      </c>
+      <c r="H24">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25">
         <v>14</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>3</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>3</v>
       </c>
-      <c r="D24" t="e">
-        <f>C24/B24*100</f>
+      <c r="D25" t="e">
+        <f>C25/B25*100</f>
         <v>#VALUE!</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E25" t="s">
         <v>3</v>
       </c>
-      <c r="F24" t="e">
-        <f>E24/B24*100</f>
+      <c r="F25" t="e">
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+      <c r="H25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" t="s">
         <v>7</v>
       </c>
-      <c r="B25">
-        <f>SUM(B2:B23)</f>
-        <v>544</v>
-      </c>
-      <c r="C25">
-        <f>SUM(C2:C23)</f>
-        <v>411</v>
-      </c>
-      <c r="D25">
-        <f>AVERAGE(D2:D23)</f>
-        <v>74.560321254037447</v>
-      </c>
-      <c r="E25">
-        <f>SUM(E2:E23)</f>
-        <v>403</v>
-      </c>
-      <c r="F25">
-        <f>AVERAGE(F2:F23)</f>
-        <v>73.434166279519062</v>
+      <c r="B26">
+        <f>SUM(B2:B24)</f>
+        <v>663</v>
+      </c>
+      <c r="C26">
+        <f>SUM(C2:C24)</f>
+        <v>504</v>
+      </c>
+      <c r="D26">
+        <f>C26/B26*100</f>
+        <v>76.018099547511312</v>
+      </c>
+      <c r="E26">
+        <f>SUM(E2:E24)</f>
+        <v>490</v>
+      </c>
+      <c r="F26">
+        <f>E26/B26*100</f>
+        <v>73.906485671191561</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H2:H25)</f>
+        <v>504</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
+      <c r="A32" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
